--- a/medicine/Enfance/Florence_Seyvos/Florence_Seyvos.xlsx
+++ b/medicine/Enfance/Florence_Seyvos/Florence_Seyvos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Florence Seyvos, née le 25 janvier 1967 à Lyon, est une écrivaine et scénariste française.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Florence Seyvos est la fille d'un médecin de campagne exerçant dans les Ardennes (France). Elle habite dans différentes villes de France (Charleville-Mézières, Le Havre, Paris) et en Côte d'Ivoire après la séparation de ses parents lorsqu'elle est enfant[1].
-Enfant solitaire, elle participe à des émissions de radio pour trouver les mots, être un personnage et vaincre la peur de l'inconnu[1].
-À 20 ans, elle est remarquée et révélée au public par le prix du jeune écrivain de langue française[2], puis elle écrit son premier roman pour la jeunesse. Elle est la compagne du cinéaste Arnaud Desplechin, avec qui elle a un enfant[1]. Elle habite Paris.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Florence Seyvos est la fille d'un médecin de campagne exerçant dans les Ardennes (France). Elle habite dans différentes villes de France (Charleville-Mézières, Le Havre, Paris) et en Côte d'Ivoire après la séparation de ses parents lorsqu'elle est enfant.
+Enfant solitaire, elle participe à des émissions de radio pour trouver les mots, être un personnage et vaincre la peur de l'inconnu.
+À 20 ans, elle est remarquée et révélée au public par le prix du jeune écrivain de langue française, puis elle écrit son premier roman pour la jeunesse. Elle est la compagne du cinéaste Arnaud Desplechin, avec qui elle a un enfant. Elle habite Paris.
 </t>
         </is>
       </c>
@@ -546,20 +560,16 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Littérature pour la jeunesse
-En 1988, Florence Seyvos fait la rencontre de Geneviève Brisac, éditrice de littérature pour la jeunesse, qui l'incite à travailler dans cette voie[1].
-En 1994, elle publie Pochée, illustré par Claude Ponti, à L'École des loisirs[3].
+          <t>Littérature pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1988, Florence Seyvos fait la rencontre de Geneviève Brisac, éditrice de littérature pour la jeunesse, qui l'incite à travailler dans cette voie.
+En 1994, elle publie Pochée, illustré par Claude Ponti, à L'École des loisirs.
 Elle traduit et adapte également de la littérature jeunesse anglaise, allemande, japonaise, suédoise, italienne (Jane Goodall, Catherine Sefton, Tomi Ungerer, Ole Könnecke, Yuichi Kasano, Kazuo Iwamura…).
-En 2007, elle traduit et adapte les textes du chef d'orchestre italien Claudio Abbado dans Je serai chef d'orchestre[4].
-Fictions
-Florence Seyvos passe de la littérature jeunesse à la littérature adulte. Pour elle, « Quel que soit le lecteur, le geste d’écrire est le même »[5]. L'univers de ses romans est souvent l'enfance.
-Elle publie un récit Gratia en 1992.
-En 1995, elle publie son premier roman Les Apparitions. Florence Seyvos reçoit pour ce livre la bourse jeune écrivain de la fondation Hachette, ainsi que le prix Goncourt du premier roman 1995 et le prix France Télévisions 1995[6].
-Elle publie L'Abandon en 2002. Ce récit raconte l'amour d'une jeune fille de 18 ans pour son professeur de violoncelle, homme mûr et marié[7].
-Elle publie son troisième roman pour adultes en 2013, Un garçon incassable. Dans ce roman, Florence Seyvos montre comment un enfant handicapé peut être aussi souple que Buster Keaton. Ce livre reçoit le prix Renaudot poche.
-En 2016, elle publie La Sainte Famille qui met en scène une petite fille Suzanne qui met en place une multitude d'astuces pour se créer un périmètre de sécurité et survivre[8].
-Scénarios
-En 1997, elle coécrit avec la réalisatrice et scénariste Noémie Lvovsky, pour la télévision, Les années lycée : Petites[1]. Depuis, la collaboration se poursuit avec Noémie Lvosky. En 1999, elles co-écrivent La vie ne me fait pas peur, en 2003 Les Sentiments, en 2007 Faut que ça danse !, en 2012 Camille redouble, en 2016 Demain et tous les autres jours.
+En 2007, elle traduit et adapte les textes du chef d'orchestre italien Claudio Abbado dans Je serai chef d'orchestre.
 </t>
         </is>
       </c>
@@ -585,14 +595,133 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Œuvres littéraires</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Fictions</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Florence Seyvos passe de la littérature jeunesse à la littérature adulte. Pour elle, « Quel que soit le lecteur, le geste d’écrire est le même ». L'univers de ses romans est souvent l'enfance.
+Elle publie un récit Gratia en 1992.
+En 1995, elle publie son premier roman Les Apparitions. Florence Seyvos reçoit pour ce livre la bourse jeune écrivain de la fondation Hachette, ainsi que le prix Goncourt du premier roman 1995 et le prix France Télévisions 1995.
+Elle publie L'Abandon en 2002. Ce récit raconte l'amour d'une jeune fille de 18 ans pour son professeur de violoncelle, homme mûr et marié.
+Elle publie son troisième roman pour adultes en 2013, Un garçon incassable. Dans ce roman, Florence Seyvos montre comment un enfant handicapé peut être aussi souple que Buster Keaton. Ce livre reçoit le prix Renaudot poche.
+En 2016, elle publie La Sainte Famille qui met en scène une petite fille Suzanne qui met en place une multitude d'astuces pour se créer un périmètre de sécurité et survivre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Florence_Seyvos</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Florence_Seyvos</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres littéraires</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Scénarios</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1997, elle coécrit avec la réalisatrice et scénariste Noémie Lvovsky, pour la télévision, Les années lycée : Petites. Depuis, la collaboration se poursuit avec Noémie Lvosky. En 1999, elles co-écrivent La vie ne me fait pas peur, en 2003 Les Sentiments, en 2007 Faut que ça danse !, en 2012 Camille redouble, en 2016 Demain et tous les autres jours.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Florence_Seyvos</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Florence_Seyvos</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Aux éditions Gallimard
-Comme au cinéma, coll. « Page Blanche (jeunesse) », 1989
-À L'École des loisirs
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Aux éditions Gallimard</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Comme au cinéma, coll. « Page Blanche (jeunesse) », 1989</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Florence_Seyvos</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Florence_Seyvos</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>À L'École des loisirs</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Le jour où j'ai été le chef, 1990
 L'Erreur de Pascal, 1991
 La Nuit chez Salomé, 1991
@@ -600,12 +729,47 @@
 La Tempête, avec Claude Ponti au dessin, 1993
 Voleuse de peluche, 1993
 Pochée, avec Claude Ponti au dessin, 1994
-L'Ami du petit tyrannosaure, avec Anaïs Vaugelade au dessin, 2003 Prix Bernard Versele (2 chouettes)[9].
+L'Ami du petit tyrannosaure, avec Anaïs Vaugelade au dessin, 2003 Prix Bernard Versele (2 chouettes).
 Jean l'impitoyable, 2007
 Il va y avoir du sport mais moi je reste tranquille, 2008
 Nanouk et moi, 2009
-Aux Éditions de l'Olivier
-Gratia, 1992
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Florence_Seyvos</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Florence_Seyvos</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Aux Éditions de l'Olivier</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Gratia, 1992
 Les Apparitions, 1995 Prix Goncourt du premier roman et prix France Télévisions.
 L’Abandon, 2002
 Le Garçon incassable, 2013 Prix Renaudot du livre de poche.
@@ -614,37 +778,39 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Florence_Seyvos</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Florence_Seyvos</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Scénarios de films</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>La vie ne me fait pas peur[10], 1999
-Les Sentiments[10], 2003
-Faut que ça danse ![10], 2007
-Camille redouble[10], 2012 César 2013 : Nomination au César du meilleur scénario original
-Demain et tous les autres jours[10], 2016</t>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>La vie ne me fait pas peur, 1999
+Les Sentiments, 2003
+Faut que ça danse !, 2007
+Camille redouble, 2012 César 2013 : Nomination au César du meilleur scénario original
+Demain et tous les autres jours, 2016</t>
         </is>
       </c>
     </row>
